--- a/data/brief/briefSchool/Teachers/b_9-13_S.xlsx
+++ b/data/brief/briefSchool/Teachers/b_9-13_S.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\daniel\Documents\Layosh_shares\breif\breifSchool\Teachers\exel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\daniel\Documents\Daniel\My_projects\coding\Diagnostic_test\Diascore-backend\data\brief\briefSchool\Teachers\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A9A9282-C6D5-47DD-B8B1-05078DA01037}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDA2C8F6-9043-46FC-91F8-990BDC2932EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="31275" yWindow="1050" windowWidth="23790" windowHeight="13275" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -423,15 +423,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J25"/>
+  <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -450,17 +450,17 @@
       <c r="F1" t="s">
         <v>4</v>
       </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
       <c r="H1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I1" t="s">
-        <v>6</v>
-      </c>
-      <c r="J1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>30</v>
       </c>
@@ -473,14 +473,14 @@
       <c r="F2">
         <v>90</v>
       </c>
-      <c r="H2">
+      <c r="G2">
         <v>85</v>
       </c>
-      <c r="J2">
+      <c r="I2">
         <v>88</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>29</v>
       </c>
@@ -493,14 +493,14 @@
       <c r="F3">
         <v>88</v>
       </c>
-      <c r="H3">
+      <c r="G3">
         <v>83</v>
       </c>
-      <c r="J3">
+      <c r="I3">
         <v>86</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>28</v>
       </c>
@@ -513,14 +513,14 @@
       <c r="F4">
         <v>85</v>
       </c>
-      <c r="H4">
+      <c r="G4">
         <v>81</v>
       </c>
-      <c r="J4">
+      <c r="I4">
         <v>83</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>27</v>
       </c>
@@ -536,14 +536,14 @@
       <c r="F5">
         <v>83</v>
       </c>
-      <c r="H5">
+      <c r="G5">
         <v>79</v>
       </c>
-      <c r="J5">
+      <c r="I5">
         <v>81</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>26</v>
       </c>
@@ -559,14 +559,14 @@
       <c r="F6">
         <v>81</v>
       </c>
-      <c r="H6">
+      <c r="G6">
         <v>77</v>
       </c>
-      <c r="J6">
+      <c r="I6">
         <v>78</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>25</v>
       </c>
@@ -582,14 +582,14 @@
       <c r="F7">
         <v>78</v>
       </c>
-      <c r="H7">
+      <c r="G7">
         <v>74</v>
       </c>
-      <c r="J7">
+      <c r="I7">
         <v>76</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>24</v>
       </c>
@@ -605,14 +605,14 @@
       <c r="F8">
         <v>76</v>
       </c>
-      <c r="H8">
+      <c r="G8">
         <v>72</v>
       </c>
-      <c r="J8">
+      <c r="I8">
         <v>74</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>23</v>
       </c>
@@ -628,14 +628,14 @@
       <c r="F9">
         <v>74</v>
       </c>
-      <c r="H9">
+      <c r="G9">
         <v>70</v>
       </c>
-      <c r="J9">
+      <c r="I9">
         <v>71</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>22</v>
       </c>
@@ -651,14 +651,14 @@
       <c r="F10">
         <v>71</v>
       </c>
-      <c r="H10">
+      <c r="G10">
         <v>68</v>
       </c>
-      <c r="J10">
+      <c r="I10">
         <v>69</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>21</v>
       </c>
@@ -677,17 +677,17 @@
       <c r="F11">
         <v>69</v>
       </c>
+      <c r="G11">
+        <v>66</v>
+      </c>
       <c r="H11">
-        <v>66</v>
+        <v>90</v>
       </c>
       <c r="I11">
-        <v>90</v>
-      </c>
-      <c r="J11">
         <v>67</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>20</v>
       </c>
@@ -706,17 +706,17 @@
       <c r="F12">
         <v>66</v>
       </c>
+      <c r="G12">
+        <v>64</v>
+      </c>
       <c r="H12">
+        <v>86</v>
+      </c>
+      <c r="I12">
         <v>64</v>
       </c>
-      <c r="I12">
-        <v>86</v>
-      </c>
-      <c r="J12">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>19</v>
       </c>
@@ -735,17 +735,17 @@
       <c r="F13">
         <v>64</v>
       </c>
+      <c r="G13">
+        <v>62</v>
+      </c>
       <c r="H13">
+        <v>83</v>
+      </c>
+      <c r="I13">
         <v>62</v>
       </c>
-      <c r="I13">
-        <v>83</v>
-      </c>
-      <c r="J13">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>18</v>
       </c>
@@ -764,17 +764,17 @@
       <c r="F14">
         <v>62</v>
       </c>
+      <c r="G14">
+        <v>60</v>
+      </c>
       <c r="H14">
+        <v>80</v>
+      </c>
+      <c r="I14">
         <v>60</v>
       </c>
-      <c r="I14">
-        <v>80</v>
-      </c>
-      <c r="J14">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>17</v>
       </c>
@@ -793,17 +793,17 @@
       <c r="F15">
         <v>59</v>
       </c>
+      <c r="G15">
+        <v>57</v>
+      </c>
       <c r="H15">
+        <v>77</v>
+      </c>
+      <c r="I15">
         <v>57</v>
       </c>
-      <c r="I15">
-        <v>77</v>
-      </c>
-      <c r="J15">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>16</v>
       </c>
@@ -822,17 +822,17 @@
       <c r="F16">
         <v>57</v>
       </c>
+      <c r="G16">
+        <v>55</v>
+      </c>
       <c r="H16">
+        <v>73</v>
+      </c>
+      <c r="I16">
         <v>55</v>
       </c>
-      <c r="I16">
-        <v>73</v>
-      </c>
-      <c r="J16">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>15</v>
       </c>
@@ -851,17 +851,17 @@
       <c r="F17">
         <v>55</v>
       </c>
+      <c r="G17">
+        <v>53</v>
+      </c>
       <c r="H17">
+        <v>70</v>
+      </c>
+      <c r="I17">
         <v>53</v>
       </c>
-      <c r="I17">
-        <v>70</v>
-      </c>
-      <c r="J17">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>14</v>
       </c>
@@ -880,17 +880,17 @@
       <c r="F18">
         <v>52</v>
       </c>
+      <c r="G18">
+        <v>51</v>
+      </c>
       <c r="H18">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="I18">
-        <v>67</v>
-      </c>
-      <c r="J18">
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>13</v>
       </c>
@@ -909,17 +909,17 @@
       <c r="F19">
         <v>50</v>
       </c>
+      <c r="G19">
+        <v>49</v>
+      </c>
       <c r="H19">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="I19">
-        <v>64</v>
-      </c>
-      <c r="J19">
         <v>48</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>12</v>
       </c>
@@ -938,17 +938,17 @@
       <c r="F20">
         <v>48</v>
       </c>
+      <c r="G20">
+        <v>47</v>
+      </c>
       <c r="H20">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="I20">
-        <v>60</v>
-      </c>
-      <c r="J20">
         <v>46</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>11</v>
       </c>
@@ -967,17 +967,17 @@
       <c r="F21">
         <v>45</v>
       </c>
+      <c r="G21">
+        <v>45</v>
+      </c>
       <c r="H21">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="I21">
-        <v>57</v>
-      </c>
-      <c r="J21">
         <v>43</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>10</v>
       </c>
@@ -996,17 +996,17 @@
       <c r="F22">
         <v>43</v>
       </c>
+      <c r="G22">
+        <v>43</v>
+      </c>
       <c r="H22">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="I22">
-        <v>54</v>
-      </c>
-      <c r="J22">
         <v>41</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>9</v>
       </c>
@@ -1016,36 +1016,36 @@
       <c r="E23">
         <v>48</v>
       </c>
-      <c r="I23">
+      <c r="H23">
         <v>51</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>8</v>
       </c>
       <c r="E24">
         <v>45</v>
       </c>
-      <c r="I24">
+      <c r="H24">
         <v>48</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>7</v>
       </c>
       <c r="E25">
         <v>42</v>
       </c>
-      <c r="I25">
+      <c r="H25">
         <v>44</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="A2:B25 J2:J25 I2:I25 H2:H25 F2:F25 E2:E11 D2:D4 C2:C25 E13:E25 D6:D25" numberStoredAsText="1"/>
+    <ignoredError sqref="A2:B25 I2:I25 H2:H25 G2:G25 F2:F25 E2:E11 D2:D4 C2:C25 E13:E25 D6:D25" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>